--- a/Учет контрольных/ПиОА По Z (Контрольная работа 1) DIV100.xlsx
+++ b/Учет контрольных/ПиОА По Z (Контрольная работа 1) DIV100.xlsx
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>7.000000000000001</v>
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>7.000000000000001</v>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
         <v>9</v>
@@ -669,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -767,13 +767,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>11</v>
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>7.000000000000001</v>
@@ -842,16 +842,16 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>7.000000000000001</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>7.000000000000001</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>7.000000000000001</v>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
         <v>7.000000000000001</v>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
         <v>7.000000000000001</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1209,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>11</v>
@@ -1293,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
@@ -1319,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
@@ -1365,13 +1365,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
         <v>10</v>
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
         <v>10</v>
@@ -1495,13 +1495,13 @@
         <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
         <v>11</v>
@@ -1521,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" t="n">
         <v>12</v>
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
@@ -1625,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>6</v>
@@ -1651,13 +1651,13 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
         <v>7.000000000000001</v>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -1781,13 +1781,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -1807,13 +1807,13 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
         <v>9</v>
@@ -1830,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
         <v>12</v>
@@ -1859,13 +1859,13 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
         <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
         <v>11</v>
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
         <v>11</v>
@@ -1891,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
         <v>10</v>
@@ -1908,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
         <v>12</v>
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -2041,13 +2041,13 @@
         <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
         <v>10</v>
@@ -2073,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -2119,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
         <v>6</v>
@@ -2171,13 +2171,13 @@
         <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" t="n">
         <v>9</v>
@@ -2197,10 +2197,10 @@
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
         <v>12</v>
@@ -2229,7 +2229,7 @@
         <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -2281,7 +2281,7 @@
         <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
         <v>10</v>
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -2483,13 +2483,13 @@
         <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
         <v>10</v>
@@ -2506,16 +2506,16 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" t="n">
         <v>8</v>
@@ -2564,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
         <v>10</v>
@@ -2587,13 +2587,13 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
         <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
         <v>10</v>
@@ -2619,7 +2619,7 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -2665,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -2746,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
         <v>10</v>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -2795,13 +2795,13 @@
         <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
         <v>10</v>
@@ -2821,13 +2821,13 @@
         <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
         <v>11</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
         <v>10</v>
@@ -2853,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -2870,16 +2870,16 @@
         <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
         <v>10</v>
@@ -2899,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
         <v>11</v>
@@ -2931,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
         <v>10</v>
@@ -2951,10 +2951,10 @@
         <v>12</v>
       </c>
       <c r="D97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97" t="n">
         <v>12</v>
@@ -3009,7 +3009,7 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G99" t="n">
         <v>10</v>
@@ -3087,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G102" t="n">
         <v>9</v>
@@ -3165,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
         <v>10</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -3289,13 +3289,13 @@
         <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="n">
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
         <v>10</v>
@@ -3321,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
@@ -3338,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
         <v>5</v>
@@ -3347,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -3367,13 +3367,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
         <v>10</v>
@@ -3399,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G114" t="n">
         <v>10</v>
@@ -3419,10 +3419,10 @@
         <v>12</v>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F115" t="n">
         <v>12</v>
@@ -3445,13 +3445,13 @@
         <v>9</v>
       </c>
       <c r="D116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G116" t="n">
         <v>10</v>
@@ -3477,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G117" t="n">
         <v>9</v>
@@ -3607,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
         <v>7.000000000000001</v>
@@ -3627,10 +3627,10 @@
         <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123" t="n">
         <v>12</v>
@@ -3685,7 +3685,7 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G125" t="n">
         <v>10</v>
@@ -3711,13 +3711,13 @@
         <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3763,7 +3763,7 @@
         <v>11</v>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G128" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" t="n">
         <v>12</v>
@@ -3835,10 +3835,10 @@
         <v>12</v>
       </c>
       <c r="D131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F131" t="n">
         <v>12</v>
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="E132" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F132" t="n">
         <v>10</v>
@@ -3913,13 +3913,13 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E134" t="n">
         <v>11</v>
       </c>
       <c r="F134" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
         <v>10</v>
@@ -3936,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="C135" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" t="n">
         <v>11</v>
@@ -3968,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F136" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -3997,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
         <v>9</v>
@@ -4049,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="F139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G139" t="n">
         <v>10</v>
@@ -4069,7 +4069,7 @@
         <v>9</v>
       </c>
       <c r="D140" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -4095,10 +4095,10 @@
         <v>12</v>
       </c>
       <c r="D141" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F141" t="n">
         <v>12</v>
@@ -4118,7 +4118,7 @@
         <v>14</v>
       </c>
       <c r="C142" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
         <v>11</v>
@@ -4127,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="F142" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
         <v>10</v>
@@ -4153,7 +4153,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -4231,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G146" t="n">
         <v>7.000000000000001</v>
@@ -4326,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
         <v>11</v>
@@ -4355,7 +4355,7 @@
         <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -4384,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
         <v>2</v>
@@ -4413,7 +4413,7 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -4430,7 +4430,7 @@
         <v>11</v>
       </c>
       <c r="C154" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
         <v>9</v>
@@ -4439,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G154" t="n">
         <v>8</v>
@@ -4485,13 +4485,13 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E156" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G156" t="n">
         <v>7.000000000000001</v>
@@ -4511,13 +4511,13 @@
         <v>11</v>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E157" t="n">
         <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G157" t="n">
         <v>11</v>
@@ -4569,7 +4569,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G159" t="n">
         <v>8</v>
@@ -4586,7 +4586,7 @@
         <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
         <v>11</v>
@@ -4647,7 +4647,7 @@
         <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G162" t="n">
         <v>7.000000000000001</v>
@@ -4725,7 +4725,7 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
         <v>10</v>
@@ -4751,7 +4751,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G166" t="n">
         <v>8</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167" t="n">
         <v>5</v>
@@ -4777,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -4797,10 +4797,10 @@
         <v>12</v>
       </c>
       <c r="D168" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E168" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F168" t="n">
         <v>12</v>
@@ -4829,7 +4829,7 @@
         <v>11</v>
       </c>
       <c r="F169" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
         <v>10</v>
@@ -4881,7 +4881,7 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G171" t="n">
         <v>9</v>
@@ -4927,13 +4927,13 @@
         <v>10</v>
       </c>
       <c r="D173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173" t="n">
         <v>11</v>
       </c>
       <c r="F173" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
         <v>10</v>
@@ -4959,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G174" t="n">
         <v>9</v>
@@ -4979,7 +4979,7 @@
         <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
         <v>11</v>
@@ -5005,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="D176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E176" t="n">
         <v>11</v>
@@ -5037,7 +5037,7 @@
         <v>11</v>
       </c>
       <c r="F177" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G177" t="n">
         <v>10</v>
@@ -5057,13 +5057,13 @@
         <v>12</v>
       </c>
       <c r="D178" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" t="n">
         <v>12</v>
       </c>
       <c r="F178" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G178" t="n">
         <v>10</v>
@@ -5135,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="D181" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G181" t="n">
         <v>11</v>
@@ -5161,13 +5161,13 @@
         <v>9</v>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E182" t="n">
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G182" t="n">
         <v>6</v>
@@ -5193,7 +5193,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G183" t="n">
         <v>6</v>
@@ -5213,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -5236,7 +5236,7 @@
         <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D185" t="n">
         <v>12</v>
@@ -5291,13 +5291,13 @@
         <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="n">
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G187" t="n">
         <v>10</v>
@@ -5323,7 +5323,7 @@
         <v>11</v>
       </c>
       <c r="F188" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G188" t="n">
         <v>10</v>
@@ -5369,13 +5369,13 @@
         <v>5</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
       </c>
       <c r="F190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -5395,7 +5395,7 @@
         <v>10</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
@@ -5427,7 +5427,7 @@
         <v>11</v>
       </c>
       <c r="F192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G192" t="n">
         <v>10</v>
@@ -5505,7 +5505,7 @@
         <v>11</v>
       </c>
       <c r="F195" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G195" t="n">
         <v>10</v>
@@ -5522,13 +5522,13 @@
         <v>9</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196" t="n">
         <v>11</v>
       </c>
       <c r="E196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F196" t="n">
         <v>10</v>
@@ -5609,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="F199" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G199" t="n">
         <v>10</v>
@@ -5626,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -5652,16 +5652,16 @@
         <v>16</v>
       </c>
       <c r="C201" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D201" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E201" t="n">
         <v>12</v>
       </c>
       <c r="F201" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G201" t="n">
         <v>10</v>
@@ -5681,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="D202" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E202" t="n">
         <v>11</v>
@@ -5719,7 +5719,7 @@
         <v>9</v>
       </c>
       <c r="H203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -5765,7 +5765,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G205" t="n">
         <v>8</v>
@@ -5785,7 +5785,7 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E206" t="n">
         <v>11</v>
@@ -5811,10 +5811,10 @@
         <v>12</v>
       </c>
       <c r="D207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E207" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F207" t="n">
         <v>12</v>
@@ -5860,7 +5860,7 @@
         <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D209" t="n">
         <v>11</v>
@@ -5889,13 +5889,13 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" t="n">
         <v>12</v>
       </c>
       <c r="F210" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G210" t="n">
         <v>11</v>
@@ -5912,16 +5912,16 @@
         <v>14</v>
       </c>
       <c r="C211" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E211" t="n">
         <v>6</v>
       </c>
       <c r="F211" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G211" t="n">
         <v>7.000000000000001</v>
@@ -5964,7 +5964,7 @@
         <v>15</v>
       </c>
       <c r="C213" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D213" t="n">
         <v>11</v>
@@ -5973,10 +5973,10 @@
         <v>11</v>
       </c>
       <c r="F213" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G213" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H213" t="n">
         <v>10</v>
@@ -6025,7 +6025,7 @@
         <v>11</v>
       </c>
       <c r="F215" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G215" t="n">
         <v>10</v>
@@ -6051,7 +6051,7 @@
         <v>6</v>
       </c>
       <c r="F216" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G216" t="n">
         <v>7.000000000000001</v>
@@ -6071,13 +6071,13 @@
         <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
       </c>
       <c r="F217" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G217" t="n">
         <v>5</v>
@@ -6097,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218" t="n">
         <v>2</v>
@@ -6129,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="F219" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G219" t="n">
         <v>10</v>
@@ -6175,10 +6175,10 @@
         <v>12</v>
       </c>
       <c r="D221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F221" t="n">
         <v>12</v>
@@ -6230,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -6259,7 +6259,7 @@
         <v>11</v>
       </c>
       <c r="F224" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G224" t="n">
         <v>10</v>
@@ -6285,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G225" t="n">
         <v>9</v>
@@ -6331,13 +6331,13 @@
         <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E227" t="n">
         <v>8</v>
       </c>
       <c r="F227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G227" t="n">
         <v>9</v>
@@ -6357,10 +6357,10 @@
         <v>12</v>
       </c>
       <c r="D228" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E228" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F228" t="n">
         <v>12</v>
@@ -6386,7 +6386,7 @@
         <v>11</v>
       </c>
       <c r="E229" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F229" t="n">
         <v>10</v>
@@ -6441,7 +6441,7 @@
         <v>5</v>
       </c>
       <c r="F231" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G231" t="n">
         <v>7.000000000000001</v>
@@ -6487,7 +6487,7 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233" t="n">
         <v>11</v>
@@ -6519,7 +6519,7 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G234" t="n">
         <v>10</v>
@@ -6571,7 +6571,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F236" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G236" t="n">
         <v>8</v>
@@ -6623,7 +6623,7 @@
         <v>5</v>
       </c>
       <c r="F238" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G238" t="n">
         <v>6</v>
@@ -6675,7 +6675,7 @@
         <v>5</v>
       </c>
       <c r="F240" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G240" t="n">
         <v>7.000000000000001</v>
@@ -6695,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="D241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E241" t="n">
         <v>2</v>
@@ -6744,7 +6744,7 @@
         <v>5</v>
       </c>
       <c r="C243" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D243" t="n">
         <v>7.000000000000001</v>
@@ -6753,7 +6753,7 @@
         <v>6</v>
       </c>
       <c r="F243" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G243" t="n">
         <v>7.000000000000001</v>
@@ -6799,7 +6799,7 @@
         <v>13</v>
       </c>
       <c r="D245" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E245" t="n">
         <v>11</v>
@@ -6883,7 +6883,7 @@
         <v>11</v>
       </c>
       <c r="F248" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
         <v>9</v>
@@ -6900,7 +6900,7 @@
         <v>16</v>
       </c>
       <c r="C249" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D249" t="n">
         <v>11</v>
@@ -6929,13 +6929,13 @@
         <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E250" t="n">
         <v>12</v>
       </c>
       <c r="F250" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G250" t="n">
         <v>11</v>
@@ -6987,7 +6987,7 @@
         <v>11</v>
       </c>
       <c r="F252" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G252" t="n">
         <v>10</v>
@@ -7059,10 +7059,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E255" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F255" t="n">
         <v>8</v>
@@ -7111,7 +7111,7 @@
         <v>13</v>
       </c>
       <c r="D257" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E257" t="n">
         <v>11</v>
@@ -7143,7 +7143,7 @@
         <v>11</v>
       </c>
       <c r="F258" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G258" t="n">
         <v>10</v>
@@ -7160,16 +7160,16 @@
         <v>8</v>
       </c>
       <c r="C259" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G259" t="n">
         <v>10</v>
@@ -7189,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="D260" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E260" t="n">
         <v>11</v>
@@ -7212,7 +7212,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D261" t="n">
         <v>10</v>
@@ -7221,7 +7221,7 @@
         <v>11</v>
       </c>
       <c r="F261" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G261" t="n">
         <v>10</v>
@@ -7241,7 +7241,7 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
@@ -7325,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="F265" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G265" t="n">
         <v>9</v>
@@ -7371,10 +7371,10 @@
         <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E267" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F267" t="n">
         <v>12</v>
@@ -7455,7 +7455,7 @@
         <v>6</v>
       </c>
       <c r="F270" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G270" t="n">
         <v>7.000000000000001</v>
@@ -7501,10 +7501,10 @@
         <v>12</v>
       </c>
       <c r="D272" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E272" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F272" t="n">
         <v>12</v>
@@ -7527,7 +7527,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E273" t="n">
         <v>11</v>
@@ -7585,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="F275" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G275" t="n">
         <v>7.000000000000001</v>
@@ -7608,7 +7608,7 @@
         <v>10</v>
       </c>
       <c r="E276" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F276" t="n">
         <v>10</v>
@@ -7628,7 +7628,7 @@
         <v>16</v>
       </c>
       <c r="C277" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D277" t="n">
         <v>12</v>
@@ -7680,7 +7680,7 @@
         <v>15</v>
       </c>
       <c r="C279" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D279" t="n">
         <v>12</v>
@@ -7735,10 +7735,10 @@
         <v>12</v>
       </c>
       <c r="D281" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E281" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F281" t="n">
         <v>12</v>
@@ -7761,13 +7761,13 @@
         <v>2</v>
       </c>
       <c r="D282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E282" t="n">
         <v>2</v>
       </c>
       <c r="F282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -7790,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="E283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F283" t="n">
         <v>2</v>
@@ -7891,19 +7891,19 @@
         <v>4</v>
       </c>
       <c r="D287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
       </c>
       <c r="F287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G287" t="n">
         <v>5</v>
       </c>
       <c r="H287" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
@@ -7923,7 +7923,7 @@
         <v>8</v>
       </c>
       <c r="F288" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G288" t="n">
         <v>8</v>
@@ -8070,7 +8070,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C294" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D294" t="n">
         <v>11</v>
@@ -8102,7 +8102,7 @@
         <v>12</v>
       </c>
       <c r="E295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F295" t="n">
         <v>12</v>
@@ -8122,7 +8122,7 @@
         <v>14</v>
       </c>
       <c r="C296" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D296" t="n">
         <v>11</v>
@@ -8151,13 +8151,13 @@
         <v>8</v>
       </c>
       <c r="D297" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E297" t="n">
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G297" t="n">
         <v>10</v>
@@ -8177,13 +8177,13 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G298" t="n">
         <v>9</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D299" t="n">
         <v>11</v>
@@ -8235,7 +8235,7 @@
         <v>8</v>
       </c>
       <c r="F300" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G300" t="n">
         <v>9</v>
@@ -8255,13 +8255,13 @@
         <v>10</v>
       </c>
       <c r="D301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E301" t="n">
         <v>11</v>
       </c>
       <c r="F301" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G301" t="n">
         <v>10</v>
@@ -8278,10 +8278,10 @@
         <v>16</v>
       </c>
       <c r="C302" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D302" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -8307,13 +8307,13 @@
         <v>10</v>
       </c>
       <c r="D303" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E303" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G303" t="n">
         <v>10</v>
@@ -8382,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="C306" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D306" t="n">
         <v>11</v>
@@ -8463,13 +8463,13 @@
         <v>8</v>
       </c>
       <c r="D309" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E309" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G309" t="n">
         <v>9</v>
@@ -8501,7 +8501,7 @@
         <v>9</v>
       </c>
       <c r="H310" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -8521,7 +8521,7 @@
         <v>11</v>
       </c>
       <c r="F311" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G311" t="n">
         <v>10</v>
@@ -8541,10 +8541,10 @@
         <v>12</v>
       </c>
       <c r="D312" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E312" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F312" t="n">
         <v>12</v>
@@ -8674,7 +8674,7 @@
         <v>10</v>
       </c>
       <c r="E317" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F317" t="n">
         <v>10</v>
@@ -8723,13 +8723,13 @@
         <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G319" t="n">
         <v>9</v>
@@ -8746,7 +8746,7 @@
         <v>18</v>
       </c>
       <c r="C320" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D320" t="n">
         <v>12</v>
@@ -8807,7 +8807,7 @@
         <v>11</v>
       </c>
       <c r="F322" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G322" t="n">
         <v>10</v>
@@ -8824,7 +8824,7 @@
         <v>13</v>
       </c>
       <c r="C323" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D323" t="n">
         <v>12</v>
@@ -8853,7 +8853,7 @@
         <v>11</v>
       </c>
       <c r="D324" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E324" t="n">
         <v>11</v>
@@ -8885,7 +8885,7 @@
         <v>11</v>
       </c>
       <c r="F325" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G325" t="n">
         <v>10</v>
@@ -8902,7 +8902,7 @@
         <v>17</v>
       </c>
       <c r="C326" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D326" t="n">
         <v>12</v>
@@ -8931,7 +8931,7 @@
         <v>11</v>
       </c>
       <c r="D327" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E327" t="n">
         <v>11</v>
@@ -8980,13 +8980,13 @@
         <v>15</v>
       </c>
       <c r="C329" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D329" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E329" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F329" t="n">
         <v>12</v>
@@ -9032,13 +9032,13 @@
         <v>16</v>
       </c>
       <c r="C331" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D331" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E331" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F331" t="n">
         <v>12</v>
@@ -9113,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E334" t="n">
         <v>2</v>
@@ -9136,7 +9136,7 @@
         <v>8</v>
       </c>
       <c r="C335" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D335" t="n">
         <v>11</v>
@@ -9171,7 +9171,7 @@
         <v>5</v>
       </c>
       <c r="F336" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G336" t="n">
         <v>6</v>
@@ -9191,7 +9191,7 @@
         <v>11</v>
       </c>
       <c r="D337" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E337" t="n">
         <v>12</v>
@@ -9217,13 +9217,13 @@
         <v>11</v>
       </c>
       <c r="D338" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E338" t="n">
         <v>12</v>
       </c>
       <c r="F338" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G338" t="n">
         <v>11</v>
@@ -9246,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="E339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F339" t="n">
         <v>2</v>
@@ -9269,7 +9269,7 @@
         <v>11</v>
       </c>
       <c r="D340" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E340" t="n">
         <v>11</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="E341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F341" t="n">
         <v>2</v>
@@ -9327,7 +9327,7 @@
         <v>6</v>
       </c>
       <c r="F342" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G342" t="n">
         <v>7.000000000000001</v>
@@ -9483,7 +9483,7 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G348" t="n">
         <v>9</v>
@@ -9552,7 +9552,7 @@
         <v>11</v>
       </c>
       <c r="C351" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D351" t="n">
         <v>12</v>
@@ -9613,7 +9613,7 @@
         <v>11</v>
       </c>
       <c r="F353" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G353" t="n">
         <v>9</v>
@@ -9630,7 +9630,7 @@
         <v>14</v>
       </c>
       <c r="C354" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D354" t="n">
         <v>11</v>
@@ -9665,7 +9665,7 @@
         <v>4</v>
       </c>
       <c r="F355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G355" t="n">
         <v>5</v>
@@ -9717,7 +9717,7 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G357" t="n">
         <v>10</v>
@@ -9769,7 +9769,7 @@
         <v>11</v>
       </c>
       <c r="F359" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G359" t="n">
         <v>10</v>
@@ -9812,16 +9812,16 @@
         <v>14</v>
       </c>
       <c r="C361" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D361" t="n">
         <v>10</v>
       </c>
       <c r="E361" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F361" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G361" t="n">
         <v>10</v>
@@ -9841,13 +9841,13 @@
         <v>5</v>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E362" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F362" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G362" t="n">
         <v>6</v>
@@ -9864,7 +9864,7 @@
         <v>10</v>
       </c>
       <c r="C363" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D363" t="n">
         <v>11</v>
@@ -9873,7 +9873,7 @@
         <v>11</v>
       </c>
       <c r="F363" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G363" t="n">
         <v>10</v>
@@ -9890,7 +9890,7 @@
         <v>8</v>
       </c>
       <c r="C364" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D364" t="n">
         <v>11</v>
@@ -9925,7 +9925,7 @@
         <v>5</v>
       </c>
       <c r="F365" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G365" t="n">
         <v>6</v>
@@ -9951,7 +9951,7 @@
         <v>8</v>
       </c>
       <c r="F366" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G366" t="n">
         <v>7.000000000000001</v>
@@ -9968,7 +9968,7 @@
         <v>11</v>
       </c>
       <c r="C367" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D367" t="n">
         <v>12</v>
@@ -9997,13 +9997,13 @@
         <v>8</v>
       </c>
       <c r="D368" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
       </c>
       <c r="F368" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G368" t="n">
         <v>9</v>
@@ -10029,7 +10029,7 @@
         <v>6</v>
       </c>
       <c r="F369" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G369" t="n">
         <v>8</v>
@@ -10049,10 +10049,10 @@
         <v>12</v>
       </c>
       <c r="D370" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E370" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F370" t="n">
         <v>12</v>
@@ -10081,7 +10081,7 @@
         <v>8</v>
       </c>
       <c r="F371" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G371" t="n">
         <v>8</v>
@@ -10107,7 +10107,7 @@
         <v>8</v>
       </c>
       <c r="F372" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G372" t="n">
         <v>7.000000000000001</v>
@@ -10130,7 +10130,7 @@
         <v>10</v>
       </c>
       <c r="E373" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F373" t="n">
         <v>10</v>
@@ -10156,7 +10156,7 @@
         <v>11</v>
       </c>
       <c r="E374" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F374" t="n">
         <v>10</v>
@@ -10179,7 +10179,7 @@
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E375" t="n">
         <v>11</v>
@@ -10205,13 +10205,13 @@
         <v>8</v>
       </c>
       <c r="D376" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E376" t="n">
         <v>8</v>
       </c>
       <c r="F376" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G376" t="n">
         <v>9</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D377" t="n">
         <v>11</v>
@@ -10257,7 +10257,7 @@
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E378" t="n">
         <v>11</v>
@@ -10283,13 +10283,13 @@
         <v>11</v>
       </c>
       <c r="D379" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E379" t="n">
         <v>12</v>
       </c>
       <c r="F379" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G379" t="n">
         <v>11</v>
@@ -10312,7 +10312,7 @@
         <v>11</v>
       </c>
       <c r="E380" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F380" t="n">
         <v>10</v>
@@ -10387,10 +10387,10 @@
         <v>12</v>
       </c>
       <c r="D383" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E383" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F383" t="n">
         <v>12</v>
@@ -10410,7 +10410,7 @@
         <v>6</v>
       </c>
       <c r="C384" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D384" t="n">
         <v>11</v>
@@ -10439,13 +10439,13 @@
         <v>2</v>
       </c>
       <c r="D385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E385" t="n">
         <v>2</v>
       </c>
       <c r="F385" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -10465,10 +10465,10 @@
         <v>12</v>
       </c>
       <c r="D386" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E386" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F386" t="n">
         <v>12</v>
@@ -10497,7 +10497,7 @@
         <v>11</v>
       </c>
       <c r="F387" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G387" t="n">
         <v>10</v>
@@ -10517,7 +10517,7 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E388" t="n">
         <v>11</v>
@@ -10569,7 +10569,7 @@
         <v>11</v>
       </c>
       <c r="D390" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E390" t="n">
         <v>11</v>
@@ -10647,13 +10647,13 @@
         <v>2</v>
       </c>
       <c r="D393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E393" t="n">
         <v>3</v>
       </c>
       <c r="F393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G393" t="n">
         <v>4</v>
@@ -10673,7 +10673,7 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E394" t="n">
         <v>11</v>
@@ -10725,13 +10725,13 @@
         <v>8</v>
       </c>
       <c r="D396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G396" t="n">
         <v>9</v>
@@ -10751,7 +10751,7 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E397" t="n">
         <v>11</v>
@@ -10777,7 +10777,7 @@
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E398" t="n">
         <v>11</v>
@@ -10809,7 +10809,7 @@
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10826,16 +10826,16 @@
         <v>13</v>
       </c>
       <c r="C400" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D400" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E400" t="n">
         <v>6</v>
       </c>
       <c r="F400" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G400" t="n">
         <v>7.000000000000001</v>
@@ -10878,7 +10878,7 @@
         <v>6</v>
       </c>
       <c r="C402" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="D402" t="n">
         <v>8</v>
@@ -10887,7 +10887,7 @@
         <v>8</v>
       </c>
       <c r="F402" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G402" t="n">
         <v>8</v>
@@ -11017,7 +11017,7 @@
         <v>11</v>
       </c>
       <c r="F407" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G407" t="n">
         <v>10</v>
@@ -11063,7 +11063,7 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E409" t="n">
         <v>11</v>
@@ -11089,16 +11089,16 @@
         <v>13</v>
       </c>
       <c r="D410" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E410" t="n">
         <v>12</v>
       </c>
       <c r="F410" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G410" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H410" t="n">
         <v>11</v>
@@ -11121,7 +11121,7 @@
         <v>8</v>
       </c>
       <c r="F411" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G411" t="n">
         <v>8</v>
@@ -11147,7 +11147,7 @@
         <v>6</v>
       </c>
       <c r="F412" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G412" t="n">
         <v>8</v>
@@ -11167,7 +11167,7 @@
         <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E413" t="n">
         <v>11</v>
@@ -11190,16 +11190,16 @@
         <v>11</v>
       </c>
       <c r="C414" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D414" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E414" t="n">
         <v>12</v>
       </c>
       <c r="F414" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G414" t="n">
         <v>10</v>
@@ -11216,16 +11216,16 @@
         <v>9</v>
       </c>
       <c r="C415" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D415" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E415" t="n">
         <v>6</v>
       </c>
       <c r="F415" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G415" t="n">
         <v>7.000000000000001</v>
@@ -11245,10 +11245,10 @@
         <v>12</v>
       </c>
       <c r="D416" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E416" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F416" t="n">
         <v>12</v>
@@ -11271,7 +11271,7 @@
         <v>2</v>
       </c>
       <c r="D417" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E417" t="n">
         <v>2</v>
@@ -11303,7 +11303,7 @@
         <v>11</v>
       </c>
       <c r="F418" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G418" t="n">
         <v>10</v>
@@ -11381,7 +11381,7 @@
         <v>11</v>
       </c>
       <c r="F421" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G421" t="n">
         <v>10</v>
@@ -11398,7 +11398,7 @@
         <v>6</v>
       </c>
       <c r="C422" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D422" t="n">
         <v>12</v>
@@ -11433,7 +11433,7 @@
         <v>11</v>
       </c>
       <c r="F423" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G423" t="n">
         <v>10</v>
@@ -11453,19 +11453,19 @@
         <v>12</v>
       </c>
       <c r="D424" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E424" t="n">
         <v>11</v>
       </c>
       <c r="F424" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G424" t="n">
         <v>10</v>
       </c>
       <c r="H424" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425">
@@ -11479,7 +11479,7 @@
         <v>9</v>
       </c>
       <c r="D425" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11511,7 +11511,7 @@
         <v>11</v>
       </c>
       <c r="F426" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G426" t="n">
         <v>10</v>
@@ -11531,10 +11531,10 @@
         <v>12</v>
       </c>
       <c r="D427" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E427" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F427" t="n">
         <v>12</v>
@@ -11563,7 +11563,7 @@
         <v>9</v>
       </c>
       <c r="F428" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G428" t="n">
         <v>9</v>
@@ -11589,7 +11589,7 @@
         <v>11</v>
       </c>
       <c r="F429" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G429" t="n">
         <v>10</v>
@@ -11667,7 +11667,7 @@
         <v>11</v>
       </c>
       <c r="F432" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G432" t="n">
         <v>10</v>
@@ -11719,7 +11719,7 @@
         <v>11</v>
       </c>
       <c r="F434" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G434" t="n">
         <v>11</v>
@@ -11745,7 +11745,7 @@
         <v>10</v>
       </c>
       <c r="F435" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G435" t="n">
         <v>11</v>
@@ -11762,16 +11762,16 @@
         <v>14</v>
       </c>
       <c r="C436" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D436" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
       </c>
       <c r="F436" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G436" t="n">
         <v>8</v>
@@ -11797,7 +11797,7 @@
         <v>6</v>
       </c>
       <c r="F437" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G437" t="n">
         <v>8</v>
@@ -11921,13 +11921,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D442" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
       </c>
       <c r="F442" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G442" t="n">
         <v>7.000000000000001</v>
@@ -11973,7 +11973,7 @@
         <v>13</v>
       </c>
       <c r="D444" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E444" t="n">
         <v>11</v>
@@ -11999,13 +11999,13 @@
         <v>8</v>
       </c>
       <c r="D445" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
       </c>
       <c r="F445" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G445" t="n">
         <v>9</v>
@@ -12022,16 +12022,16 @@
         <v>15</v>
       </c>
       <c r="C446" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D446" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E446" t="n">
         <v>11</v>
       </c>
       <c r="F446" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G446" t="n">
         <v>11</v>
@@ -12051,13 +12051,13 @@
         <v>8</v>
       </c>
       <c r="D447" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E447" t="n">
         <v>8</v>
       </c>
       <c r="F447" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G447" t="n">
         <v>9</v>
@@ -12077,10 +12077,10 @@
         <v>12</v>
       </c>
       <c r="D448" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E448" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F448" t="n">
         <v>12</v>
@@ -12132,10 +12132,10 @@
         <v>3</v>
       </c>
       <c r="E450" t="n">
+        <v>2</v>
+      </c>
+      <c r="F450" t="n">
         <v>3</v>
-      </c>
-      <c r="F450" t="n">
-        <v>2</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -12187,7 +12187,7 @@
         <v>9</v>
       </c>
       <c r="F452" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G452" t="n">
         <v>9</v>
@@ -12204,13 +12204,13 @@
         <v>8</v>
       </c>
       <c r="C453" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D453" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E453" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F453" t="n">
         <v>12</v>
@@ -12230,7 +12230,7 @@
         <v>13</v>
       </c>
       <c r="C454" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D454" t="n">
         <v>10</v>
@@ -12239,7 +12239,7 @@
         <v>11</v>
       </c>
       <c r="F454" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G454" t="n">
         <v>10</v>
@@ -12308,7 +12308,7 @@
         <v>9</v>
       </c>
       <c r="C457" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D457" t="n">
         <v>10</v>
@@ -12317,7 +12317,7 @@
         <v>11</v>
       </c>
       <c r="F457" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G457" t="n">
         <v>11</v>
@@ -12360,7 +12360,7 @@
         <v>16</v>
       </c>
       <c r="C459" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D459" t="n">
         <v>11</v>
@@ -12421,7 +12421,7 @@
         <v>11</v>
       </c>
       <c r="F461" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G461" t="n">
         <v>10</v>
@@ -12447,7 +12447,7 @@
         <v>8</v>
       </c>
       <c r="F462" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G462" t="n">
         <v>8</v>
@@ -12473,7 +12473,7 @@
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G463" t="n">
         <v>6</v>
@@ -12499,7 +12499,7 @@
         <v>11</v>
       </c>
       <c r="F464" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G464" t="n">
         <v>10</v>
@@ -12516,16 +12516,16 @@
         <v>14</v>
       </c>
       <c r="C465" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D465" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E465" t="n">
         <v>6</v>
       </c>
       <c r="F465" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G465" t="n">
         <v>7.000000000000001</v>
@@ -12551,7 +12551,7 @@
         <v>6</v>
       </c>
       <c r="F466" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G466" t="n">
         <v>7.000000000000001</v>
@@ -12574,7 +12574,7 @@
         <v>2</v>
       </c>
       <c r="E467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F467" t="n">
         <v>2</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D468" t="n">
         <v>11</v>
@@ -12609,7 +12609,7 @@
         <v>5</v>
       </c>
       <c r="H468" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="469">
@@ -12620,7 +12620,7 @@
         <v>10</v>
       </c>
       <c r="C469" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D469" t="n">
         <v>11</v>
@@ -12655,7 +12655,7 @@
         <v>10</v>
       </c>
       <c r="F470" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G470" t="n">
         <v>9</v>
@@ -12681,7 +12681,7 @@
         <v>6</v>
       </c>
       <c r="F471" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G471" t="n">
         <v>7.000000000000001</v>
@@ -12707,7 +12707,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F472" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G472" t="n">
         <v>9</v>
@@ -12762,7 +12762,7 @@
         <v>9</v>
       </c>
       <c r="G474" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H474" t="n">
         <v>9</v>
@@ -12779,7 +12779,7 @@
         <v>12</v>
       </c>
       <c r="D475" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E475" t="n">
         <v>11</v>
@@ -12802,7 +12802,7 @@
         <v>8</v>
       </c>
       <c r="C476" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D476" t="n">
         <v>12</v>
@@ -12828,7 +12828,7 @@
         <v>14</v>
       </c>
       <c r="C477" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D477" t="n">
         <v>11</v>
@@ -12857,13 +12857,13 @@
         <v>9</v>
       </c>
       <c r="D478" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
       </c>
       <c r="F478" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G478" t="n">
         <v>8</v>
@@ -12889,7 +12889,7 @@
         <v>9</v>
       </c>
       <c r="F479" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G479" t="n">
         <v>10</v>
@@ -12915,7 +12915,7 @@
         <v>11</v>
       </c>
       <c r="F480" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G480" t="n">
         <v>10</v>
@@ -12941,7 +12941,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F481" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G481" t="n">
         <v>8</v>
@@ -12984,16 +12984,16 @@
         <v>17</v>
       </c>
       <c r="C483" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D483" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E483" t="n">
         <v>6</v>
       </c>
       <c r="F483" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G483" t="n">
         <v>7.000000000000001</v>
@@ -13039,7 +13039,7 @@
         <v>8</v>
       </c>
       <c r="D485" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E485" t="n">
         <v>9</v>
@@ -13065,13 +13065,13 @@
         <v>12</v>
       </c>
       <c r="D486" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E486" t="n">
         <v>12</v>
       </c>
       <c r="F486" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G486" t="n">
         <v>10</v>
@@ -13088,16 +13088,16 @@
         <v>5</v>
       </c>
       <c r="C487" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D487" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E487" t="n">
         <v>6</v>
       </c>
       <c r="F487" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G487" t="n">
         <v>7.000000000000001</v>
@@ -13120,7 +13120,7 @@
         <v>12</v>
       </c>
       <c r="E488" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F488" t="n">
         <v>12</v>
@@ -13172,7 +13172,7 @@
         <v>2</v>
       </c>
       <c r="E490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F490" t="n">
         <v>2</v>
@@ -13201,7 +13201,7 @@
         <v>8</v>
       </c>
       <c r="F491" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G491" t="n">
         <v>8</v>
@@ -13227,7 +13227,7 @@
         <v>6</v>
       </c>
       <c r="F492" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G492" t="n">
         <v>5</v>
@@ -13299,13 +13299,13 @@
         <v>8</v>
       </c>
       <c r="D495" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E495" t="n">
         <v>9</v>
       </c>
       <c r="F495" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G495" t="n">
         <v>8</v>
@@ -13331,7 +13331,7 @@
         <v>9</v>
       </c>
       <c r="F496" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G496" t="n">
         <v>9</v>
@@ -13348,16 +13348,16 @@
         <v>10</v>
       </c>
       <c r="C497" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D497" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E497" t="n">
         <v>11</v>
       </c>
       <c r="F497" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G497" t="n">
         <v>11</v>
@@ -13380,10 +13380,10 @@
         <v>11</v>
       </c>
       <c r="E498" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F498" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G498" t="n">
         <v>7.000000000000001</v>
@@ -13409,7 +13409,7 @@
         <v>5</v>
       </c>
       <c r="F499" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G499" t="n">
         <v>7.000000000000001</v>
@@ -13429,7 +13429,7 @@
         <v>11</v>
       </c>
       <c r="D500" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E500" t="n">
         <v>11</v>
@@ -13455,13 +13455,13 @@
         <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E501" t="n">
         <v>12</v>
       </c>
       <c r="F501" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G501" t="n">
         <v>11</v>
@@ -13513,7 +13513,7 @@
         <v>3</v>
       </c>
       <c r="F503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G503" t="n">
         <v>3</v>
@@ -13539,7 +13539,7 @@
         <v>5</v>
       </c>
       <c r="F504" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G504" t="n">
         <v>7.000000000000001</v>
@@ -13565,7 +13565,7 @@
         <v>5</v>
       </c>
       <c r="F505" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G505" t="n">
         <v>6</v>
@@ -13588,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="E506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F506" t="n">
         <v>2</v>
@@ -13611,13 +13611,13 @@
         <v>12</v>
       </c>
       <c r="D507" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E507" t="n">
         <v>12</v>
       </c>
       <c r="F507" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G507" t="n">
         <v>10</v>
@@ -13640,10 +13640,10 @@
         <v>3</v>
       </c>
       <c r="E508" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F508" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G508" t="n">
         <v>3</v>
@@ -13669,7 +13669,7 @@
         <v>3</v>
       </c>
       <c r="F509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G509" t="n">
         <v>4</v>
@@ -13686,16 +13686,16 @@
         <v>11</v>
       </c>
       <c r="C510" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="D510" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E510" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F510" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G510" t="n">
         <v>10</v>
@@ -13718,7 +13718,7 @@
         <v>12</v>
       </c>
       <c r="E511" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F511" t="n">
         <v>12</v>
@@ -13747,7 +13747,7 @@
         <v>8</v>
       </c>
       <c r="F512" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G512" t="n">
         <v>6</v>
@@ -13773,7 +13773,7 @@
         <v>8</v>
       </c>
       <c r="F513" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G513" t="n">
         <v>7.000000000000001</v>
@@ -13816,7 +13816,7 @@
         <v>17</v>
       </c>
       <c r="C515" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D515" t="n">
         <v>12</v>
@@ -13929,7 +13929,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F519" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G519" t="n">
         <v>9</v>
@@ -13972,7 +13972,7 @@
         <v>3</v>
       </c>
       <c r="C521" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D521" t="n">
         <v>8</v>
@@ -13981,7 +13981,7 @@
         <v>9</v>
       </c>
       <c r="F521" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G521" t="n">
         <v>8</v>
@@ -13998,16 +13998,16 @@
         <v>19</v>
       </c>
       <c r="C522" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D522" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E522" t="n">
         <v>12</v>
       </c>
       <c r="F522" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G522" t="n">
         <v>10</v>
@@ -14027,13 +14027,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D523" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E523" t="n">
         <v>8</v>
       </c>
       <c r="F523" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G523" t="n">
         <v>7.000000000000001</v>
@@ -14053,13 +14053,13 @@
         <v>13</v>
       </c>
       <c r="D524" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E524" t="n">
         <v>12</v>
       </c>
       <c r="F524" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G524" t="n">
         <v>10</v>
@@ -14079,13 +14079,13 @@
         <v>12</v>
       </c>
       <c r="D525" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E525" t="n">
         <v>11</v>
       </c>
       <c r="F525" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G525" t="n">
         <v>10</v>
@@ -14137,7 +14137,7 @@
         <v>4</v>
       </c>
       <c r="F527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G527" t="n">
         <v>4</v>
@@ -14212,10 +14212,10 @@
         <v>5</v>
       </c>
       <c r="E530" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F530" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G530" t="n">
         <v>8</v>
@@ -14235,13 +14235,13 @@
         <v>6</v>
       </c>
       <c r="D531" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E531" t="n">
         <v>6</v>
       </c>
       <c r="F531" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G531" t="n">
         <v>8</v>
@@ -14290,7 +14290,7 @@
         <v>2</v>
       </c>
       <c r="E533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F533" t="n">
         <v>2</v>
@@ -14310,7 +14310,7 @@
         <v>12</v>
       </c>
       <c r="C534" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D534" t="n">
         <v>6</v>
@@ -14400,7 +14400,7 @@
         <v>9</v>
       </c>
       <c r="G537" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H537" t="n">
         <v>9</v>
@@ -14417,7 +14417,7 @@
         <v>2</v>
       </c>
       <c r="D538" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E538" t="n">
         <v>2</v>
@@ -14469,13 +14469,13 @@
         <v>9</v>
       </c>
       <c r="D540" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E540" t="n">
         <v>10</v>
       </c>
       <c r="F540" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G540" t="n">
         <v>10</v>
@@ -14547,13 +14547,13 @@
         <v>8</v>
       </c>
       <c r="D543" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E543" t="n">
         <v>9</v>
       </c>
       <c r="F543" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G543" t="n">
         <v>10</v>
@@ -14625,7 +14625,7 @@
         <v>9</v>
       </c>
       <c r="D546" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E546" t="n">
         <v>10</v>
@@ -14677,7 +14677,7 @@
         <v>13</v>
       </c>
       <c r="D548" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E548" t="n">
         <v>11</v>
@@ -14709,7 +14709,7 @@
         <v>8</v>
       </c>
       <c r="F549" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G549" t="n">
         <v>7.000000000000001</v>
@@ -14729,10 +14729,10 @@
         <v>12</v>
       </c>
       <c r="D550" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E550" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F550" t="n">
         <v>12</v>
@@ -14758,7 +14758,7 @@
         <v>2</v>
       </c>
       <c r="E551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F551" t="n">
         <v>2</v>
@@ -14778,7 +14778,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C552" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D552" t="n">
         <v>6</v>
@@ -14807,10 +14807,10 @@
         <v>12</v>
       </c>
       <c r="D553" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E553" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F553" t="n">
         <v>12</v>
@@ -14859,10 +14859,10 @@
         <v>12</v>
       </c>
       <c r="D555" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E555" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F555" t="n">
         <v>12</v>
@@ -14891,7 +14891,7 @@
         <v>10</v>
       </c>
       <c r="F556" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G556" t="n">
         <v>10</v>
@@ -14908,7 +14908,7 @@
         <v>16</v>
       </c>
       <c r="C557" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D557" t="n">
         <v>12</v>
@@ -14937,13 +14937,13 @@
         <v>8</v>
       </c>
       <c r="D558" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E558" t="n">
         <v>6</v>
       </c>
       <c r="F558" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G558" t="n">
         <v>8</v>
@@ -14963,7 +14963,7 @@
         <v>9</v>
       </c>
       <c r="D559" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E559" t="n">
         <v>7.000000000000001</v>
@@ -14986,16 +14986,16 @@
         <v>9</v>
       </c>
       <c r="C560" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="D560" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E560" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F560" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G560" t="n">
         <v>10</v>
@@ -15015,13 +15015,13 @@
         <v>6</v>
       </c>
       <c r="D561" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E561" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F561" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G561" t="n">
         <v>7.000000000000001</v>
@@ -15047,7 +15047,7 @@
         <v>8</v>
       </c>
       <c r="F562" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G562" t="n">
         <v>7.000000000000001</v>
@@ -15067,13 +15067,13 @@
         <v>12</v>
       </c>
       <c r="D563" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E563" t="n">
         <v>12</v>
       </c>
       <c r="F563" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G563" t="n">
         <v>10</v>
@@ -15151,7 +15151,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F566" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G566" t="n">
         <v>8</v>
@@ -15177,7 +15177,7 @@
         <v>9</v>
       </c>
       <c r="F567" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G567" t="n">
         <v>9</v>
@@ -15197,13 +15197,13 @@
         <v>8</v>
       </c>
       <c r="D568" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
       </c>
       <c r="F568" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G568" t="n">
         <v>9</v>
@@ -15223,10 +15223,10 @@
         <v>10</v>
       </c>
       <c r="D569" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E569" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F569" t="n">
         <v>10</v>
@@ -15275,10 +15275,10 @@
         <v>12</v>
       </c>
       <c r="D571" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E571" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F571" t="n">
         <v>12</v>
@@ -15301,7 +15301,7 @@
         <v>2</v>
       </c>
       <c r="D572" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E572" t="n">
         <v>2</v>
@@ -15330,10 +15330,10 @@
         <v>5</v>
       </c>
       <c r="E573" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F573" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G573" t="n">
         <v>7.000000000000001</v>
@@ -15350,7 +15350,7 @@
         <v>11</v>
       </c>
       <c r="C574" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D574" t="n">
         <v>6</v>
@@ -15405,13 +15405,13 @@
         <v>6</v>
       </c>
       <c r="D576" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E576" t="n">
         <v>5</v>
       </c>
       <c r="F576" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G576" t="n">
         <v>7.000000000000001</v>
@@ -15463,7 +15463,7 @@
         <v>6</v>
       </c>
       <c r="F578" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G578" t="n">
         <v>7.000000000000001</v>
@@ -15489,7 +15489,7 @@
         <v>3</v>
       </c>
       <c r="F579" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G579" t="n">
         <v>3</v>
@@ -15509,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="D580" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E580" t="n">
         <v>2</v>
@@ -15587,13 +15587,13 @@
         <v>11</v>
       </c>
       <c r="D583" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E583" t="n">
         <v>11</v>
       </c>
       <c r="F583" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G583" t="n">
         <v>11</v>
@@ -15610,10 +15610,10 @@
         <v>9</v>
       </c>
       <c r="C584" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D584" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E584" t="n">
         <v>10</v>
@@ -15645,7 +15645,7 @@
         <v>3</v>
       </c>
       <c r="F585" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G585" t="n">
         <v>4</v>
@@ -15671,7 +15671,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F586" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G586" t="n">
         <v>8</v>
@@ -15723,7 +15723,7 @@
         <v>9</v>
       </c>
       <c r="F588" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G588" t="n">
         <v>9</v>
@@ -15775,7 +15775,7 @@
         <v>6</v>
       </c>
       <c r="F590" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G590" t="n">
         <v>7.000000000000001</v>
@@ -15827,7 +15827,7 @@
         <v>11</v>
       </c>
       <c r="F592" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G592" t="n">
         <v>10</v>
@@ -15853,7 +15853,7 @@
         <v>11</v>
       </c>
       <c r="F593" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G593" t="n">
         <v>10</v>
@@ -15873,10 +15873,10 @@
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E594" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F594" t="n">
         <v>12</v>
@@ -15905,7 +15905,7 @@
         <v>11</v>
       </c>
       <c r="F595" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G595" t="n">
         <v>10</v>
@@ -15931,7 +15931,7 @@
         <v>5</v>
       </c>
       <c r="F596" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G596" t="n">
         <v>7.000000000000001</v>
@@ -15957,7 +15957,7 @@
         <v>8</v>
       </c>
       <c r="F597" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G597" t="n">
         <v>9</v>
@@ -16035,7 +16035,7 @@
         <v>11</v>
       </c>
       <c r="F600" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G600" t="n">
         <v>10</v>
@@ -16061,7 +16061,7 @@
         <v>6</v>
       </c>
       <c r="F601" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G601" t="n">
         <v>8</v>
@@ -16084,7 +16084,7 @@
         <v>2</v>
       </c>
       <c r="E602" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F602" t="n">
         <v>2</v>
@@ -16107,13 +16107,13 @@
         <v>12</v>
       </c>
       <c r="D603" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E603" t="n">
         <v>12</v>
       </c>
       <c r="F603" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G603" t="n">
         <v>10</v>
@@ -16133,13 +16133,13 @@
         <v>11</v>
       </c>
       <c r="D604" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E604" t="n">
         <v>12</v>
       </c>
       <c r="F604" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G604" t="n">
         <v>11</v>
@@ -16159,10 +16159,10 @@
         <v>12</v>
       </c>
       <c r="D605" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E605" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F605" t="n">
         <v>12</v>
@@ -16208,16 +16208,16 @@
         <v>4</v>
       </c>
       <c r="C607" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D607" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E607" t="n">
         <v>12</v>
       </c>
       <c r="F607" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G607" t="n">
         <v>10</v>
@@ -16315,13 +16315,13 @@
         <v>2</v>
       </c>
       <c r="D611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E611" t="n">
         <v>2</v>
       </c>
       <c r="F611" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G611" t="n">
         <v>3</v>
@@ -16341,7 +16341,7 @@
         <v>9</v>
       </c>
       <c r="D612" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E612" t="n">
         <v>10</v>
@@ -16445,13 +16445,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D616" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E616" t="n">
         <v>8</v>
       </c>
       <c r="F616" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G616" t="n">
         <v>8</v>
@@ -16471,7 +16471,7 @@
         <v>10</v>
       </c>
       <c r="D617" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E617" t="n">
         <v>11</v>
@@ -16503,7 +16503,7 @@
         <v>9</v>
       </c>
       <c r="F618" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G618" t="n">
         <v>9</v>
@@ -16529,7 +16529,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F619" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G619" t="n">
         <v>9</v>
@@ -16549,10 +16549,10 @@
         <v>12</v>
       </c>
       <c r="D620" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E620" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F620" t="n">
         <v>12</v>
@@ -16572,7 +16572,7 @@
         <v>12</v>
       </c>
       <c r="C621" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D621" t="n">
         <v>12</v>
@@ -16601,10 +16601,10 @@
         <v>12</v>
       </c>
       <c r="D622" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E622" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F622" t="n">
         <v>12</v>
@@ -16624,7 +16624,7 @@
         <v>15</v>
       </c>
       <c r="C623" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D623" t="n">
         <v>12</v>
@@ -16653,7 +16653,7 @@
         <v>11</v>
       </c>
       <c r="D624" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E624" t="n">
         <v>11</v>
@@ -16685,13 +16685,13 @@
         <v>4</v>
       </c>
       <c r="F625" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G625" t="n">
         <v>4</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626">
@@ -16711,7 +16711,7 @@
         <v>8</v>
       </c>
       <c r="F626" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G626" t="n">
         <v>8</v>
@@ -16783,7 +16783,7 @@
         <v>11</v>
       </c>
       <c r="D629" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E629" t="n">
         <v>11</v>
@@ -16806,10 +16806,10 @@
         <v>3</v>
       </c>
       <c r="C630" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D630" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E630" t="n">
         <v>11</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D631" t="n">
         <v>10</v>
@@ -16841,7 +16841,7 @@
         <v>9</v>
       </c>
       <c r="F631" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G631" t="n">
         <v>10</v>
@@ -16913,10 +16913,10 @@
         <v>12</v>
       </c>
       <c r="D634" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E634" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F634" t="n">
         <v>12</v>
@@ -16965,10 +16965,10 @@
         <v>12</v>
       </c>
       <c r="D636" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E636" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F636" t="n">
         <v>12</v>
@@ -16991,13 +16991,13 @@
         <v>11</v>
       </c>
       <c r="D637" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E637" t="n">
         <v>12</v>
       </c>
       <c r="F637" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G637" t="n">
         <v>11</v>
@@ -17017,13 +17017,13 @@
         <v>9</v>
       </c>
       <c r="D638" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E638" t="n">
         <v>10</v>
       </c>
       <c r="F638" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G638" t="n">
         <v>10</v>
@@ -17101,7 +17101,7 @@
         <v>5</v>
       </c>
       <c r="F641" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G641" t="n">
         <v>6</v>
@@ -17147,10 +17147,10 @@
         <v>12</v>
       </c>
       <c r="D643" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E643" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F643" t="n">
         <v>12</v>
@@ -17173,7 +17173,7 @@
         <v>11</v>
       </c>
       <c r="D644" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E644" t="n">
         <v>11</v>
@@ -17196,7 +17196,7 @@
         <v>19</v>
       </c>
       <c r="C645" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D645" t="n">
         <v>12</v>
@@ -17257,7 +17257,7 @@
         <v>9</v>
       </c>
       <c r="F647" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G647" t="n">
         <v>8</v>
@@ -17277,13 +17277,13 @@
         <v>8</v>
       </c>
       <c r="D648" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E648" t="n">
         <v>8</v>
       </c>
       <c r="F648" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G648" t="n">
         <v>9</v>
@@ -17387,7 +17387,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F652" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G652" t="n">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>5</v>
       </c>
       <c r="F653" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G653" t="n">
         <v>6</v>
@@ -17439,7 +17439,7 @@
         <v>11</v>
       </c>
       <c r="F654" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G654" t="n">
         <v>10</v>
@@ -17491,7 +17491,7 @@
         <v>8</v>
       </c>
       <c r="F656" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G656" t="n">
         <v>8</v>
@@ -17534,16 +17534,16 @@
         <v>10</v>
       </c>
       <c r="C658" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D658" t="n">
         <v>10</v>
       </c>
       <c r="E658" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F658" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G658" t="n">
         <v>10</v>
@@ -17563,13 +17563,13 @@
         <v>9</v>
       </c>
       <c r="D659" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E659" t="n">
         <v>9</v>
       </c>
       <c r="F659" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G659" t="n">
         <v>9</v>
@@ -17586,13 +17586,13 @@
         <v>4</v>
       </c>
       <c r="C660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D660" t="n">
         <v>11</v>
       </c>
       <c r="E660" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F660" t="n">
         <v>10</v>
@@ -17647,7 +17647,7 @@
         <v>11</v>
       </c>
       <c r="F662" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G662" t="n">
         <v>10</v>
@@ -17673,7 +17673,7 @@
         <v>11</v>
       </c>
       <c r="F663" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G663" t="n">
         <v>10</v>
@@ -17693,13 +17693,13 @@
         <v>6</v>
       </c>
       <c r="D664" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E664" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F664" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G664" t="n">
         <v>6</v>
@@ -17725,7 +17725,7 @@
         <v>9</v>
       </c>
       <c r="F665" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G665" t="n">
         <v>9</v>
@@ -17751,7 +17751,7 @@
         <v>11</v>
       </c>
       <c r="F666" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G666" t="n">
         <v>10</v>
@@ -17797,13 +17797,13 @@
         <v>11</v>
       </c>
       <c r="D668" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E668" t="n">
         <v>11</v>
       </c>
       <c r="F668" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G668" t="n">
         <v>10</v>
@@ -17820,7 +17820,7 @@
         <v>6</v>
       </c>
       <c r="C669" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D669" t="n">
         <v>12</v>
@@ -17855,7 +17855,7 @@
         <v>2</v>
       </c>
       <c r="F670" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G670" t="n">
         <v>2</v>
@@ -17875,10 +17875,10 @@
         <v>12</v>
       </c>
       <c r="D671" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E671" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F671" t="n">
         <v>12</v>
@@ -17907,7 +17907,7 @@
         <v>9</v>
       </c>
       <c r="F672" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G672" t="n">
         <v>9</v>
@@ -17924,7 +17924,7 @@
         <v>16</v>
       </c>
       <c r="C673" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D673" t="n">
         <v>12</v>
@@ -17950,7 +17950,7 @@
         <v>10</v>
       </c>
       <c r="C674" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D674" t="n">
         <v>12</v>
@@ -17985,7 +17985,7 @@
         <v>9</v>
       </c>
       <c r="F675" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G675" t="n">
         <v>10</v>
@@ -18002,16 +18002,16 @@
         <v>14</v>
       </c>
       <c r="C676" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D676" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E676" t="n">
         <v>6</v>
       </c>
       <c r="F676" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G676" t="n">
         <v>7.000000000000001</v>
@@ -18028,16 +18028,16 @@
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D677" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E677" t="n">
         <v>6</v>
       </c>
       <c r="F677" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G677" t="n">
         <v>7.000000000000001</v>
@@ -18080,16 +18080,16 @@
         <v>5</v>
       </c>
       <c r="C679" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D679" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E679" t="n">
         <v>6</v>
       </c>
       <c r="F679" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G679" t="n">
         <v>7.000000000000001</v>
@@ -18115,7 +18115,7 @@
         <v>11</v>
       </c>
       <c r="F680" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G680" t="n">
         <v>10</v>
@@ -18141,7 +18141,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F681" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G681" t="n">
         <v>9</v>
@@ -18184,16 +18184,16 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C683" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D683" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E683" t="n">
         <v>12</v>
       </c>
       <c r="F683" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G683" t="n">
         <v>10</v>
@@ -18216,7 +18216,7 @@
         <v>12</v>
       </c>
       <c r="E684" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F684" t="n">
         <v>12</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="E686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F686" t="n">
         <v>2</v>
@@ -18349,7 +18349,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F689" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G689" t="n">
         <v>8</v>
@@ -18369,7 +18369,7 @@
         <v>11</v>
       </c>
       <c r="D690" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E690" t="n">
         <v>11</v>
@@ -18473,7 +18473,7 @@
         <v>11</v>
       </c>
       <c r="D694" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E694" t="n">
         <v>11</v>
@@ -18531,7 +18531,7 @@
         <v>3</v>
       </c>
       <c r="F696" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G696" t="n">
         <v>3</v>
@@ -18577,10 +18577,10 @@
         <v>12</v>
       </c>
       <c r="D698" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E698" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F698" t="n">
         <v>12</v>
@@ -18603,7 +18603,7 @@
         <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -18626,7 +18626,7 @@
         <v>16</v>
       </c>
       <c r="C700" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D700" t="n">
         <v>12</v>
@@ -18678,7 +18678,7 @@
         <v>8</v>
       </c>
       <c r="C702" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D702" t="n">
         <v>4</v>
@@ -18713,7 +18713,7 @@
         <v>6</v>
       </c>
       <c r="F703" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G703" t="n">
         <v>8</v>
@@ -18762,7 +18762,7 @@
         <v>11</v>
       </c>
       <c r="E705" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F705" t="n">
         <v>10</v>
@@ -18863,10 +18863,10 @@
         <v>12</v>
       </c>
       <c r="D709" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E709" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F709" t="n">
         <v>12</v>
@@ -18895,7 +18895,7 @@
         <v>5</v>
       </c>
       <c r="F710" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G710" t="n">
         <v>6</v>
@@ -18921,7 +18921,7 @@
         <v>6</v>
       </c>
       <c r="F711" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G711" t="n">
         <v>8</v>
@@ -18947,7 +18947,7 @@
         <v>9</v>
       </c>
       <c r="F712" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G712" t="n">
         <v>6</v>
@@ -18973,7 +18973,7 @@
         <v>9</v>
       </c>
       <c r="F713" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G713" t="n">
         <v>9</v>
@@ -19051,7 +19051,7 @@
         <v>9</v>
       </c>
       <c r="F716" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G716" t="n">
         <v>9</v>
@@ -19077,7 +19077,7 @@
         <v>4</v>
       </c>
       <c r="F717" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G717" t="n">
         <v>5</v>
@@ -19094,10 +19094,10 @@
         <v>8</v>
       </c>
       <c r="C718" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D718" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E718" t="n">
         <v>10</v>
@@ -19126,10 +19126,10 @@
         <v>9</v>
       </c>
       <c r="E719" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F719" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G719" t="n">
         <v>9</v>
@@ -19175,13 +19175,13 @@
         <v>5</v>
       </c>
       <c r="D721" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E721" t="n">
         <v>4</v>
       </c>
       <c r="F721" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G721" t="n">
         <v>5</v>
@@ -19198,7 +19198,7 @@
         <v>13</v>
       </c>
       <c r="C722" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D722" t="n">
         <v>9</v>
@@ -19230,7 +19230,7 @@
         <v>2</v>
       </c>
       <c r="E723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F723" t="n">
         <v>2</v>
@@ -19259,7 +19259,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F724" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G724" t="n">
         <v>9</v>
@@ -19279,13 +19279,13 @@
         <v>10</v>
       </c>
       <c r="D725" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E725" t="n">
         <v>10</v>
       </c>
       <c r="F725" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G725" t="n">
         <v>10</v>
@@ -19305,19 +19305,19 @@
         <v>12</v>
       </c>
       <c r="D726" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E726" t="n">
         <v>11</v>
       </c>
       <c r="F726" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G726" t="n">
         <v>10</v>
       </c>
       <c r="H726" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="727">
@@ -19409,13 +19409,13 @@
         <v>10</v>
       </c>
       <c r="D730" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E730" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F730" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G730" t="n">
         <v>11</v>
@@ -19435,13 +19435,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D731" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E731" t="n">
         <v>6</v>
       </c>
       <c r="F731" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G731" t="n">
         <v>7.000000000000001</v>
@@ -19464,7 +19464,7 @@
         <v>2</v>
       </c>
       <c r="E732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F732" t="n">
         <v>2</v>
@@ -19487,13 +19487,13 @@
         <v>12</v>
       </c>
       <c r="D733" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E733" t="n">
         <v>12</v>
       </c>
       <c r="F733" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G733" t="n">
         <v>10</v>
@@ -19513,10 +19513,10 @@
         <v>12</v>
       </c>
       <c r="D734" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E734" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F734" t="n">
         <v>12</v>
@@ -19571,7 +19571,7 @@
         <v>8</v>
       </c>
       <c r="F736" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G736" t="n">
         <v>7.000000000000001</v>
@@ -19597,7 +19597,7 @@
         <v>4</v>
       </c>
       <c r="F737" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G737" t="n">
         <v>5</v>
@@ -19620,7 +19620,7 @@
         <v>2</v>
       </c>
       <c r="E738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F738" t="n">
         <v>2</v>
@@ -19721,10 +19721,10 @@
         <v>12</v>
       </c>
       <c r="D742" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E742" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F742" t="n">
         <v>12</v>
@@ -19753,7 +19753,7 @@
         <v>11</v>
       </c>
       <c r="F743" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G743" t="n">
         <v>10</v>
@@ -19773,7 +19773,7 @@
         <v>12</v>
       </c>
       <c r="D744" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E744" t="n">
         <v>11</v>
@@ -19831,7 +19831,7 @@
         <v>2</v>
       </c>
       <c r="F746" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G746" t="n">
         <v>2</v>
@@ -19854,10 +19854,10 @@
         <v>10</v>
       </c>
       <c r="E747" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F747" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G747" t="n">
         <v>10</v>
@@ -19877,7 +19877,7 @@
         <v>12</v>
       </c>
       <c r="D748" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E748" t="n">
         <v>11</v>
@@ -19906,7 +19906,7 @@
         <v>11</v>
       </c>
       <c r="E749" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F749" t="n">
         <v>10</v>
@@ -19961,7 +19961,7 @@
         <v>5</v>
       </c>
       <c r="F751" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G751" t="n">
         <v>6</v>
@@ -19981,10 +19981,10 @@
         <v>12</v>
       </c>
       <c r="D752" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E752" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F752" t="n">
         <v>12</v>
@@ -20085,7 +20085,7 @@
         <v>12</v>
       </c>
       <c r="D756" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E756" t="n">
         <v>11</v>
@@ -20117,7 +20117,7 @@
         <v>4</v>
       </c>
       <c r="F757" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G757" t="n">
         <v>4</v>
@@ -20169,7 +20169,7 @@
         <v>4</v>
       </c>
       <c r="F759" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G759" t="n">
         <v>5</v>
@@ -20189,13 +20189,13 @@
         <v>8</v>
       </c>
       <c r="D760" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
       </c>
       <c r="F760" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G760" t="n">
         <v>10</v>
@@ -20221,7 +20221,7 @@
         <v>10</v>
       </c>
       <c r="F761" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G761" t="n">
         <v>10</v>
@@ -20241,13 +20241,13 @@
         <v>8</v>
       </c>
       <c r="D762" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E762" t="n">
         <v>8</v>
       </c>
       <c r="F762" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G762" t="n">
         <v>9</v>
@@ -20264,16 +20264,16 @@
         <v>8</v>
       </c>
       <c r="C763" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D763" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E763" t="n">
         <v>12</v>
       </c>
       <c r="F763" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G763" t="n">
         <v>10</v>
@@ -20319,7 +20319,7 @@
         <v>10</v>
       </c>
       <c r="D765" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E765" t="n">
         <v>11</v>
@@ -20345,10 +20345,10 @@
         <v>12</v>
       </c>
       <c r="D766" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E766" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F766" t="n">
         <v>12</v>
@@ -20368,7 +20368,7 @@
         <v>11</v>
       </c>
       <c r="C767" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D767" t="n">
         <v>11</v>
@@ -20403,7 +20403,7 @@
         <v>11</v>
       </c>
       <c r="F768" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G768" t="n">
         <v>10</v>
@@ -20429,7 +20429,7 @@
         <v>11</v>
       </c>
       <c r="F769" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G769" t="n">
         <v>10</v>
@@ -20455,7 +20455,7 @@
         <v>9</v>
       </c>
       <c r="F770" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G770" t="n">
         <v>9</v>
@@ -20501,10 +20501,10 @@
         <v>12</v>
       </c>
       <c r="D772" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E772" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F772" t="n">
         <v>12</v>
@@ -20550,7 +20550,7 @@
         <v>12</v>
       </c>
       <c r="C774" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D774" t="n">
         <v>11</v>
@@ -20631,7 +20631,7 @@
         <v>2</v>
       </c>
       <c r="D777" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E777" t="n">
         <v>2</v>
@@ -20660,7 +20660,7 @@
         <v>2</v>
       </c>
       <c r="E778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F778" t="n">
         <v>2</v>
@@ -20689,7 +20689,7 @@
         <v>11</v>
       </c>
       <c r="F779" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G779" t="n">
         <v>10</v>
@@ -20709,13 +20709,13 @@
         <v>6</v>
       </c>
       <c r="D780" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E780" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F780" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G780" t="n">
         <v>7.000000000000001</v>
@@ -20741,7 +20741,7 @@
         <v>4</v>
       </c>
       <c r="F781" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G781" t="n">
         <v>5</v>
@@ -20764,7 +20764,7 @@
         <v>11</v>
       </c>
       <c r="E782" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F782" t="n">
         <v>10</v>
@@ -20793,7 +20793,7 @@
         <v>10</v>
       </c>
       <c r="F783" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G783" t="n">
         <v>10</v>
@@ -20819,7 +20819,7 @@
         <v>5</v>
       </c>
       <c r="F784" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G784" t="n">
         <v>7.000000000000001</v>
@@ -20839,13 +20839,13 @@
         <v>11</v>
       </c>
       <c r="D785" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E785" t="n">
         <v>11</v>
       </c>
       <c r="F785" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G785" t="n">
         <v>10</v>
@@ -20871,7 +20871,7 @@
         <v>6</v>
       </c>
       <c r="F786" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G786" t="n">
         <v>7.000000000000001</v>
@@ -20917,10 +20917,10 @@
         <v>12</v>
       </c>
       <c r="D788" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E788" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F788" t="n">
         <v>12</v>
@@ -20975,7 +20975,7 @@
         <v>5</v>
       </c>
       <c r="F790" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G790" t="n">
         <v>4</v>
@@ -20998,7 +20998,7 @@
         <v>2</v>
       </c>
       <c r="E791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F791" t="n">
         <v>2</v>
@@ -21070,7 +21070,7 @@
         <v>16</v>
       </c>
       <c r="C794" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D794" t="n">
         <v>12</v>
@@ -21085,7 +21085,7 @@
         <v>12</v>
       </c>
       <c r="H794" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="795">
@@ -21099,19 +21099,19 @@
         <v>12</v>
       </c>
       <c r="D795" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E795" t="n">
         <v>11</v>
       </c>
       <c r="F795" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G795" t="n">
         <v>10</v>
       </c>
       <c r="H795" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="796">
@@ -21151,13 +21151,13 @@
         <v>10</v>
       </c>
       <c r="D797" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E797" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F797" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G797" t="n">
         <v>11</v>
@@ -21200,7 +21200,7 @@
         <v>8</v>
       </c>
       <c r="C799" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D799" t="n">
         <v>10</v>
@@ -21209,7 +21209,7 @@
         <v>9</v>
       </c>
       <c r="F799" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G799" t="n">
         <v>10</v>
@@ -21229,7 +21229,7 @@
         <v>12</v>
       </c>
       <c r="D800" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E800" t="n">
         <v>11</v>
@@ -21258,7 +21258,7 @@
         <v>2</v>
       </c>
       <c r="E801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F801" t="n">
         <v>2</v>
@@ -21333,13 +21333,13 @@
         <v>9</v>
       </c>
       <c r="D804" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
       </c>
       <c r="F804" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G804" t="n">
         <v>9</v>
@@ -21385,13 +21385,13 @@
         <v>10</v>
       </c>
       <c r="D806" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E806" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F806" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G806" t="n">
         <v>10</v>
@@ -21417,7 +21417,7 @@
         <v>8</v>
       </c>
       <c r="F807" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G807" t="n">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>6</v>
       </c>
       <c r="F808" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G808" t="n">
         <v>7.000000000000001</v>
@@ -21495,7 +21495,7 @@
         <v>11</v>
       </c>
       <c r="F810" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G810" t="n">
         <v>10</v>
@@ -21515,10 +21515,10 @@
         <v>12</v>
       </c>
       <c r="D811" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E811" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F811" t="n">
         <v>12</v>
@@ -21564,7 +21564,7 @@
         <v>9</v>
       </c>
       <c r="C813" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D813" t="n">
         <v>12</v>
@@ -21642,16 +21642,16 @@
         <v>10</v>
       </c>
       <c r="C816" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D816" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E816" t="n">
         <v>6</v>
       </c>
       <c r="F816" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G816" t="n">
         <v>7.000000000000001</v>
@@ -21755,7 +21755,7 @@
         <v>5</v>
       </c>
       <c r="F820" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G820" t="n">
         <v>6</v>
@@ -21775,7 +21775,7 @@
         <v>9</v>
       </c>
       <c r="D821" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E821" t="n">
         <v>10</v>
@@ -21856,7 +21856,7 @@
         <v>2</v>
       </c>
       <c r="E824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F824" t="n">
         <v>2</v>
@@ -21885,7 +21885,7 @@
         <v>8</v>
       </c>
       <c r="F825" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G825" t="n">
         <v>8</v>
@@ -21908,7 +21908,7 @@
         <v>2</v>
       </c>
       <c r="E826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F826" t="n">
         <v>2</v>
@@ -21960,7 +21960,7 @@
         <v>10</v>
       </c>
       <c r="E828" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F828" t="n">
         <v>10</v>
@@ -21989,7 +21989,7 @@
         <v>9</v>
       </c>
       <c r="F829" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G829" t="n">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>11</v>
       </c>
       <c r="F830" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G830" t="n">
         <v>10</v>
@@ -22032,7 +22032,7 @@
         <v>14</v>
       </c>
       <c r="C831" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D831" t="n">
         <v>12</v>
@@ -22061,16 +22061,16 @@
         <v>13</v>
       </c>
       <c r="D832" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E832" t="n">
         <v>12</v>
       </c>
       <c r="F832" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G832" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H832" t="n">
         <v>11</v>
@@ -22087,13 +22087,13 @@
         <v>8</v>
       </c>
       <c r="D833" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E833" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F833" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G833" t="n">
         <v>9</v>
@@ -22139,10 +22139,10 @@
         <v>12</v>
       </c>
       <c r="D835" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E835" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F835" t="n">
         <v>12</v>
@@ -22162,7 +22162,7 @@
         <v>15</v>
       </c>
       <c r="C836" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D836" t="n">
         <v>4</v>
@@ -22301,7 +22301,7 @@
         <v>5</v>
       </c>
       <c r="F841" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G841" t="n">
         <v>7.000000000000001</v>
@@ -22353,7 +22353,7 @@
         <v>3</v>
       </c>
       <c r="F843" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G843" t="n">
         <v>4</v>
@@ -22370,7 +22370,7 @@
         <v>12</v>
       </c>
       <c r="C844" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D844" t="n">
         <v>12</v>
@@ -22428,7 +22428,7 @@
         <v>2</v>
       </c>
       <c r="E846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F846" t="n">
         <v>2</v>
@@ -22451,13 +22451,13 @@
         <v>11</v>
       </c>
       <c r="D847" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E847" t="n">
         <v>12</v>
       </c>
       <c r="F847" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G847" t="n">
         <v>11</v>
@@ -22561,7 +22561,7 @@
         <v>8</v>
       </c>
       <c r="F851" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G851" t="n">
         <v>8</v>
@@ -22587,7 +22587,7 @@
         <v>3</v>
       </c>
       <c r="F852" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G852" t="n">
         <v>4</v>
@@ -22604,7 +22604,7 @@
         <v>3</v>
       </c>
       <c r="C853" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D853" t="n">
         <v>11</v>
@@ -22665,7 +22665,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F855" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G855" t="n">
         <v>8</v>
@@ -22682,7 +22682,7 @@
         <v>14</v>
       </c>
       <c r="C856" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D856" t="n">
         <v>12</v>
@@ -22743,7 +22743,7 @@
         <v>5</v>
       </c>
       <c r="F858" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G858" t="n">
         <v>6</v>
@@ -22795,7 +22795,7 @@
         <v>5</v>
       </c>
       <c r="F860" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G860" t="n">
         <v>6</v>
@@ -22815,13 +22815,13 @@
         <v>5</v>
       </c>
       <c r="D861" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E861" t="n">
         <v>4</v>
       </c>
       <c r="F861" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G861" t="n">
         <v>5</v>
@@ -22847,7 +22847,7 @@
         <v>5</v>
       </c>
       <c r="F862" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G862" t="n">
         <v>7.000000000000001</v>
@@ -22925,7 +22925,7 @@
         <v>4</v>
       </c>
       <c r="F865" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G865" t="n">
         <v>4</v>
@@ -22951,7 +22951,7 @@
         <v>9</v>
       </c>
       <c r="F866" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G866" t="n">
         <v>9</v>
@@ -22971,7 +22971,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D867" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E867" t="n">
         <v>8</v>
@@ -22983,7 +22983,7 @@
         <v>9</v>
       </c>
       <c r="H867" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="868">
@@ -22997,10 +22997,10 @@
         <v>12</v>
       </c>
       <c r="D868" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E868" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F868" t="n">
         <v>12</v>
@@ -23029,7 +23029,7 @@
         <v>5</v>
       </c>
       <c r="F869" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G869" t="n">
         <v>7.000000000000001</v>
@@ -23072,7 +23072,7 @@
         <v>17</v>
       </c>
       <c r="C871" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D871" t="n">
         <v>11</v>
@@ -23159,7 +23159,7 @@
         <v>5</v>
       </c>
       <c r="F874" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G874" t="n">
         <v>7.000000000000001</v>
@@ -23179,13 +23179,13 @@
         <v>10</v>
       </c>
       <c r="D875" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E875" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F875" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G875" t="n">
         <v>11</v>
@@ -23211,7 +23211,7 @@
         <v>9</v>
       </c>
       <c r="F876" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G876" t="n">
         <v>10</v>
@@ -23306,7 +23306,7 @@
         <v>10</v>
       </c>
       <c r="C880" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D880" t="n">
         <v>11</v>
@@ -23387,7 +23387,7 @@
         <v>2</v>
       </c>
       <c r="D883" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E883" t="n">
         <v>2</v>
@@ -23410,7 +23410,7 @@
         <v>9</v>
       </c>
       <c r="C884" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D884" t="n">
         <v>11</v>
@@ -23419,7 +23419,7 @@
         <v>11</v>
       </c>
       <c r="F884" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G884" t="n">
         <v>10</v>
@@ -23517,7 +23517,7 @@
         <v>11</v>
       </c>
       <c r="D888" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E888" t="n">
         <v>11</v>
@@ -23543,7 +23543,7 @@
         <v>11</v>
       </c>
       <c r="D889" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E889" t="n">
         <v>11</v>
@@ -23569,10 +23569,10 @@
         <v>12</v>
       </c>
       <c r="D890" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E890" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F890" t="n">
         <v>12</v>
@@ -23601,7 +23601,7 @@
         <v>6</v>
       </c>
       <c r="F891" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G891" t="n">
         <v>7.000000000000001</v>
@@ -23627,7 +23627,7 @@
         <v>11</v>
       </c>
       <c r="F892" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G892" t="n">
         <v>10</v>
@@ -23679,7 +23679,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F894" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G894" t="n">
         <v>9</v>
@@ -23699,7 +23699,7 @@
         <v>4</v>
       </c>
       <c r="D895" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
@@ -23757,7 +23757,7 @@
         <v>6</v>
       </c>
       <c r="F897" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G897" t="n">
         <v>7.000000000000001</v>
@@ -23777,10 +23777,10 @@
         <v>12</v>
       </c>
       <c r="D898" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E898" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F898" t="n">
         <v>12</v>
@@ -23800,7 +23800,7 @@
         <v>12</v>
       </c>
       <c r="C899" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D899" t="n">
         <v>12</v>
@@ -23829,7 +23829,7 @@
         <v>10</v>
       </c>
       <c r="D900" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E900" t="n">
         <v>11</v>
@@ -23855,10 +23855,10 @@
         <v>12</v>
       </c>
       <c r="D901" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E901" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F901" t="n">
         <v>12</v>
@@ -23936,7 +23936,7 @@
         <v>10</v>
       </c>
       <c r="E904" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F904" t="n">
         <v>10</v>
@@ -23959,7 +23959,7 @@
         <v>10</v>
       </c>
       <c r="D905" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E905" t="n">
         <v>10</v>
@@ -23982,16 +23982,16 @@
         <v>0</v>
       </c>
       <c r="C906" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D906" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E906" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F906" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G906" t="n">
         <v>6</v>
@@ -24037,13 +24037,13 @@
         <v>11</v>
       </c>
       <c r="D908" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E908" t="n">
         <v>12</v>
       </c>
       <c r="F908" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G908" t="n">
         <v>11</v>
@@ -24095,7 +24095,7 @@
         <v>11</v>
       </c>
       <c r="F910" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G910" t="n">
         <v>10</v>
@@ -24115,13 +24115,13 @@
         <v>8</v>
       </c>
       <c r="D911" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
       </c>
       <c r="F911" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G911" t="n">
         <v>10</v>
@@ -24141,7 +24141,7 @@
         <v>10</v>
       </c>
       <c r="D912" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E912" t="n">
         <v>11</v>
@@ -24164,16 +24164,16 @@
         <v>12</v>
       </c>
       <c r="C913" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D913" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E913" t="n">
         <v>12</v>
       </c>
       <c r="F913" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G913" t="n">
         <v>10</v>
@@ -24193,7 +24193,7 @@
         <v>11</v>
       </c>
       <c r="D914" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E914" t="n">
         <v>11</v>
@@ -24222,7 +24222,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E915" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F915" t="n">
         <v>7.000000000000001</v>
@@ -24245,10 +24245,10 @@
         <v>12</v>
       </c>
       <c r="D916" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E916" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F916" t="n">
         <v>12</v>
@@ -24277,7 +24277,7 @@
         <v>9</v>
       </c>
       <c r="F917" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G917" t="n">
         <v>10</v>
@@ -24303,7 +24303,7 @@
         <v>5</v>
       </c>
       <c r="F918" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G918" t="n">
         <v>6</v>
@@ -24329,7 +24329,7 @@
         <v>9</v>
       </c>
       <c r="F919" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G919" t="n">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>9</v>
       </c>
       <c r="F920" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G920" t="n">
         <v>9</v>
@@ -24375,7 +24375,7 @@
         <v>13</v>
       </c>
       <c r="D921" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E921" t="n">
         <v>11</v>
@@ -24401,13 +24401,13 @@
         <v>11</v>
       </c>
       <c r="D922" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E922" t="n">
         <v>12</v>
       </c>
       <c r="F922" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G922" t="n">
         <v>11</v>
@@ -24557,13 +24557,13 @@
         <v>10</v>
       </c>
       <c r="D928" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E928" t="n">
         <v>11</v>
       </c>
       <c r="F928" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G928" t="n">
         <v>10</v>
@@ -24580,7 +24580,7 @@
         <v>11</v>
       </c>
       <c r="C929" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D929" t="n">
         <v>12</v>
@@ -24609,7 +24609,7 @@
         <v>13</v>
       </c>
       <c r="D930" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E930" t="n">
         <v>11</v>
@@ -24667,7 +24667,7 @@
         <v>9</v>
       </c>
       <c r="F932" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G932" t="n">
         <v>9</v>
@@ -24742,7 +24742,7 @@
         <v>2</v>
       </c>
       <c r="E935" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F935" t="n">
         <v>2</v>
@@ -24771,7 +24771,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F936" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G936" t="n">
         <v>9</v>
@@ -24791,7 +24791,7 @@
         <v>11</v>
       </c>
       <c r="D937" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E937" t="n">
         <v>12</v>
@@ -24817,7 +24817,7 @@
         <v>13</v>
       </c>
       <c r="D938" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E938" t="n">
         <v>11</v>
@@ -24840,16 +24840,16 @@
         <v>1</v>
       </c>
       <c r="C939" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D939" t="n">
         <v>10</v>
       </c>
       <c r="E939" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F939" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G939" t="n">
         <v>10</v>
@@ -24875,7 +24875,7 @@
         <v>8</v>
       </c>
       <c r="F940" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G940" t="n">
         <v>7.000000000000001</v>
@@ -24892,7 +24892,7 @@
         <v>14</v>
       </c>
       <c r="C941" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D941" t="n">
         <v>11</v>
@@ -24947,7 +24947,7 @@
         <v>11</v>
       </c>
       <c r="D943" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E943" t="n">
         <v>11</v>
@@ -24976,7 +24976,7 @@
         <v>2</v>
       </c>
       <c r="E944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F944" t="n">
         <v>2</v>
@@ -25022,7 +25022,7 @@
         <v>14</v>
       </c>
       <c r="C946" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D946" t="n">
         <v>9</v>
@@ -25031,7 +25031,7 @@
         <v>9</v>
       </c>
       <c r="F946" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G946" t="n">
         <v>8</v>
@@ -25048,7 +25048,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C947" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D947" t="n">
         <v>11</v>
@@ -25057,10 +25057,10 @@
         <v>11</v>
       </c>
       <c r="F947" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G947" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H947" t="n">
         <v>10</v>
@@ -25077,7 +25077,7 @@
         <v>2</v>
       </c>
       <c r="D948" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E948" t="n">
         <v>2</v>
@@ -25106,7 +25106,7 @@
         <v>2</v>
       </c>
       <c r="E949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F949" t="n">
         <v>2</v>
@@ -25126,7 +25126,7 @@
         <v>12</v>
       </c>
       <c r="C950" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D950" t="n">
         <v>12</v>
@@ -25155,7 +25155,7 @@
         <v>12</v>
       </c>
       <c r="D951" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E951" t="n">
         <v>11</v>
@@ -25178,7 +25178,7 @@
         <v>6</v>
       </c>
       <c r="C952" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D952" t="n">
         <v>6</v>
@@ -25259,7 +25259,7 @@
         <v>10</v>
       </c>
       <c r="D955" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E955" t="n">
         <v>11</v>
@@ -25291,7 +25291,7 @@
         <v>9</v>
       </c>
       <c r="F956" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G956" t="n">
         <v>7.000000000000001</v>
@@ -25343,7 +25343,7 @@
         <v>9</v>
       </c>
       <c r="F958" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G958" t="n">
         <v>10</v>
@@ -25369,7 +25369,7 @@
         <v>8</v>
       </c>
       <c r="F959" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="G959" t="n">
         <v>9</v>
@@ -25389,7 +25389,7 @@
         <v>11</v>
       </c>
       <c r="D960" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E960" t="n">
         <v>11</v>
